--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD990EB-C3E5-47A3-8FD0-4930480CB32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1E10BC-21EE-4654-9FA1-FAA9F64CF1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="2" r:id="rId2"/>
+    <sheet name="非機能タスク一覧" sheetId="3" r:id="rId2"/>
+    <sheet name="config" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">タスク一覧!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">非機能タスク一覧!$B$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -75,39 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SEの実装（ボタン押下時）</t>
-    <rPh sb="3" eb="5">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>オウカジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEの実装（移動時）</t>
-    <rPh sb="3" eb="5">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>イドウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEの実装（探索時）</t>
-    <rPh sb="3" eb="5">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タンサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BGM実装</t>
     <rPh sb="3" eb="5">
       <t>ジッソウ</t>
@@ -127,6 +96,127 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISSUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データフォルダ構造見直し</t>
+    <rPh sb="7" eb="9">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通処理 フォルダ構造見直し</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@dataclass 実装 Phase1</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@dataclass 実装 Phase2</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@dataclass 実装 Phase3</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEの実装（ホーム画面　ボタン押下時）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEの実装（セーブ画面　ボタン押下時）</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEの実装（コンフィグ画面　ボタン押下時）</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEの実装（ダンジョン画面　ボタン押下時）</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEの実装（ダンジョン画面　移動時）</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>イドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEの実装（ダンジョン画面　探索時）</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,9 +226,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0000"/>
+    <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +241,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,15 +316,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -241,9 +340,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E50"/>
+  <dimension ref="B1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -533,15 +635,16 @@
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="6" max="6" width="45.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -554,14 +657,17 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="8">
         <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -569,53 +675,59 @@
       <c r="E3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="8" t="str">
         <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
         <v>-</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="8" t="str">
         <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
         <v>-</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="8" t="str">
         <f>IF(C6="","",IF(D6="対応中",MAX($B$3:$B5)+1,"-"))</f>
         <v>-</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="8">
         <f>IF(C7="","",IF(D7="対応中",MAX($B$3:$B6)+1,"-"))</f>
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
@@ -623,41 +735,53 @@
       <c r="E7" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="8" t="str">
         <f>IF(C8="","",IF(D8="対応中",MAX($B$3:$B7)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C8" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="8" t="str">
         <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C9" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="8" t="str">
         <f>IF(C10="","",IF(D10="対応中",MAX($B$3:$B9)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C10" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="8" t="str">
         <f>IF(C11="","",IF(D11="対応中",MAX($B$3:$B10)+1,"-"))</f>
         <v/>
@@ -667,8 +791,9 @@
         <v>3</v>
       </c>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="8" t="str">
         <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
         <v/>
@@ -678,8 +803,9 @@
         <v>3</v>
       </c>
       <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="8" t="str">
         <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
         <v/>
@@ -689,8 +815,9 @@
         <v>3</v>
       </c>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="8" t="str">
         <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
         <v/>
@@ -700,8 +827,9 @@
         <v>3</v>
       </c>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="8" t="str">
         <f>IF(C15="","",IF(D15="対応中",MAX($B$3:$B14)+1,"-"))</f>
         <v/>
@@ -711,8 +839,9 @@
         <v>3</v>
       </c>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="8" t="str">
         <f>IF(C16="","",IF(D16="対応中",MAX($B$3:$B15)+1,"-"))</f>
         <v/>
@@ -722,8 +851,9 @@
         <v>3</v>
       </c>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="8" t="str">
         <f>IF(C17="","",IF(D17="対応中",MAX($B$3:$B16)+1,"-"))</f>
         <v/>
@@ -733,8 +863,9 @@
         <v>3</v>
       </c>
       <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="8" t="str">
         <f>IF(C18="","",IF(D18="対応中",MAX($B$3:$B17)+1,"-"))</f>
         <v/>
@@ -744,8 +875,9 @@
         <v>3</v>
       </c>
       <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="8" t="str">
         <f>IF(C19="","",IF(D19="対応中",MAX($B$3:$B18)+1,"-"))</f>
         <v/>
@@ -755,8 +887,9 @@
         <v>3</v>
       </c>
       <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="8" t="str">
         <f>IF(C20="","",IF(D20="対応中",MAX($B$3:$B19)+1,"-"))</f>
         <v/>
@@ -766,8 +899,9 @@
         <v>3</v>
       </c>
       <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="8" t="str">
         <f>IF(C21="","",IF(D21="対応中",MAX($B$3:$B20)+1,"-"))</f>
         <v/>
@@ -777,8 +911,9 @@
         <v>3</v>
       </c>
       <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="8" t="str">
         <f>IF(C22="","",IF(D22="対応中",MAX($B$3:$B21)+1,"-"))</f>
         <v/>
@@ -788,8 +923,9 @@
         <v>3</v>
       </c>
       <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="8" t="str">
         <f>IF(C23="","",IF(D23="対応中",MAX($B$3:$B22)+1,"-"))</f>
         <v/>
@@ -799,8 +935,9 @@
         <v>3</v>
       </c>
       <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="8" t="str">
         <f>IF(C24="","",IF(D24="対応中",MAX($B$3:$B23)+1,"-"))</f>
         <v/>
@@ -810,8 +947,9 @@
         <v>3</v>
       </c>
       <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="8" t="str">
         <f>IF(C25="","",IF(D25="対応中",MAX($B$3:$B24)+1,"-"))</f>
         <v/>
@@ -821,8 +959,9 @@
         <v>3</v>
       </c>
       <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="8" t="str">
         <f>IF(C26="","",IF(D26="対応中",MAX($B$3:$B25)+1,"-"))</f>
         <v/>
@@ -832,8 +971,9 @@
         <v>3</v>
       </c>
       <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="8" t="str">
         <f>IF(C27="","",IF(D27="対応中",MAX($B$3:$B26)+1,"-"))</f>
         <v/>
@@ -843,8 +983,9 @@
         <v>3</v>
       </c>
       <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="8" t="str">
         <f>IF(C28="","",IF(D28="対応中",MAX($B$3:$B27)+1,"-"))</f>
         <v/>
@@ -854,8 +995,9 @@
         <v>3</v>
       </c>
       <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="8" t="str">
         <f>IF(C29="","",IF(D29="対応中",MAX($B$3:$B28)+1,"-"))</f>
         <v/>
@@ -865,8 +1007,9 @@
         <v>3</v>
       </c>
       <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="8" t="str">
         <f>IF(C30="","",IF(D30="対応中",MAX($B$3:$B29)+1,"-"))</f>
         <v/>
@@ -876,8 +1019,9 @@
         <v>3</v>
       </c>
       <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="8" t="str">
         <f>IF(C31="","",IF(D31="対応中",MAX($B$3:$B30)+1,"-"))</f>
         <v/>
@@ -887,8 +1031,9 @@
         <v>3</v>
       </c>
       <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="8" t="str">
         <f>IF(C32="","",IF(D32="対応中",MAX($B$3:$B31)+1,"-"))</f>
         <v/>
@@ -898,8 +1043,9 @@
         <v>3</v>
       </c>
       <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="8" t="str">
         <f>IF(C33="","",IF(D33="対応中",MAX($B$3:$B32)+1,"-"))</f>
         <v/>
@@ -909,8 +1055,9 @@
         <v>3</v>
       </c>
       <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="8" t="str">
         <f>IF(C34="","",IF(D34="対応中",MAX($B$3:$B33)+1,"-"))</f>
         <v/>
@@ -920,8 +1067,9 @@
         <v>3</v>
       </c>
       <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="8" t="str">
         <f>IF(C35="","",IF(D35="対応中",MAX($B$3:$B34)+1,"-"))</f>
         <v/>
@@ -931,8 +1079,9 @@
         <v>3</v>
       </c>
       <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="8" t="str">
         <f>IF(C36="","",IF(D36="対応中",MAX($B$3:$B35)+1,"-"))</f>
         <v/>
@@ -942,8 +1091,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="8" t="str">
         <f>IF(C37="","",IF(D37="対応中",MAX($B$3:$B36)+1,"-"))</f>
         <v/>
@@ -953,8 +1103,9 @@
         <v>3</v>
       </c>
       <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="8" t="str">
         <f>IF(C38="","",IF(D38="対応中",MAX($B$3:$B37)+1,"-"))</f>
         <v/>
@@ -964,8 +1115,9 @@
         <v>3</v>
       </c>
       <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="8" t="str">
         <f>IF(C39="","",IF(D39="対応中",MAX($B$3:$B38)+1,"-"))</f>
         <v/>
@@ -975,8 +1127,9 @@
         <v>3</v>
       </c>
       <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="8" t="str">
         <f>IF(C40="","",IF(D40="対応中",MAX($B$3:$B39)+1,"-"))</f>
         <v/>
@@ -986,8 +1139,9 @@
         <v>3</v>
       </c>
       <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="8" t="str">
         <f>IF(C41="","",IF(D41="対応中",MAX($B$3:$B40)+1,"-"))</f>
         <v/>
@@ -997,8 +1151,9 @@
         <v>3</v>
       </c>
       <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="8" t="str">
         <f>IF(C42="","",IF(D42="対応中",MAX($B$3:$B41)+1,"-"))</f>
         <v/>
@@ -1008,8 +1163,9 @@
         <v>3</v>
       </c>
       <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="8" t="str">
         <f>IF(C43="","",IF(D43="対応中",MAX($B$3:$B42)+1,"-"))</f>
         <v/>
@@ -1019,8 +1175,9 @@
         <v>3</v>
       </c>
       <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="8" t="str">
         <f>IF(C44="","",IF(D44="対応中",MAX($B$3:$B43)+1,"-"))</f>
         <v/>
@@ -1030,8 +1187,9 @@
         <v>3</v>
       </c>
       <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="8" t="str">
         <f>IF(C45="","",IF(D45="対応中",MAX($B$3:$B44)+1,"-"))</f>
         <v/>
@@ -1041,8 +1199,9 @@
         <v>3</v>
       </c>
       <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="8" t="str">
         <f>IF(C46="","",IF(D46="対応中",MAX($B$3:$B45)+1,"-"))</f>
         <v/>
@@ -1052,8 +1211,9 @@
         <v>3</v>
       </c>
       <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="8" t="str">
         <f>IF(C47="","",IF(D47="対応中",MAX($B$3:$B46)+1,"-"))</f>
         <v/>
@@ -1063,8 +1223,9 @@
         <v>3</v>
       </c>
       <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="8" t="str">
         <f>IF(C48="","",IF(D48="対応中",MAX($B$3:$B47)+1,"-"))</f>
         <v/>
@@ -1074,8 +1235,9 @@
         <v>3</v>
       </c>
       <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="8" t="str">
         <f>IF(C49="","",IF(D49="対応中",MAX($B$3:$B48)+1,"-"))</f>
         <v/>
@@ -1085,8 +1247,9 @@
         <v>3</v>
       </c>
       <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="8" t="str">
         <f>IF(C50="","",IF(D50="対応中",MAX($B$3:$B49)+1,"-"))</f>
         <v/>
@@ -1096,10 +1259,15 @@
         <v>3</v>
       </c>
       <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A576DD19-E8AD-471B-8FEB-4DE2B4D0A759}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{C48ACDB2-FC58-42A6-90CC-101C11E866CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1117,11 +1285,663 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1457C2-445B-4A17-8B64-BAE4B6C52E06}">
+  <dimension ref="B1:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="6" max="6" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1">
+        <f>MAX(B3:B900)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8">
+        <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="8">
+        <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="8">
+        <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="8" t="str">
+        <f>IF(C6="","",IF(D6="対応中",MAX($B$3:$B5)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="8" t="str">
+        <f>IF(C7="","",IF(D7="対応中",MAX($B$3:$B6)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="8" t="str">
+        <f>IF(C8="","",IF(D8="対応中",MAX($B$3:$B7)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="8" t="str">
+        <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="8" t="str">
+        <f>IF(C10="","",IF(D10="対応中",MAX($B$3:$B9)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="8" t="str">
+        <f>IF(C11="","",IF(D11="対応中",MAX($B$3:$B10)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="8" t="str">
+        <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="8" t="str">
+        <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="8" t="str">
+        <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="8" t="str">
+        <f>IF(C15="","",IF(D15="対応中",MAX($B$3:$B14)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="8" t="str">
+        <f>IF(C16="","",IF(D16="対応中",MAX($B$3:$B15)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="8" t="str">
+        <f>IF(C17="","",IF(D17="対応中",MAX($B$3:$B16)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="8" t="str">
+        <f>IF(C18="","",IF(D18="対応中",MAX($B$3:$B17)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="8" t="str">
+        <f>IF(C19="","",IF(D19="対応中",MAX($B$3:$B18)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8" t="str">
+        <f>IF(C20="","",IF(D20="対応中",MAX($B$3:$B19)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="8" t="str">
+        <f>IF(C21="","",IF(D21="対応中",MAX($B$3:$B20)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="8" t="str">
+        <f>IF(C22="","",IF(D22="対応中",MAX($B$3:$B21)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="8" t="str">
+        <f>IF(C23="","",IF(D23="対応中",MAX($B$3:$B22)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="8" t="str">
+        <f>IF(C24="","",IF(D24="対応中",MAX($B$3:$B23)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="8" t="str">
+        <f>IF(C25="","",IF(D25="対応中",MAX($B$3:$B24)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="8" t="str">
+        <f>IF(C26="","",IF(D26="対応中",MAX($B$3:$B25)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="8" t="str">
+        <f>IF(C27="","",IF(D27="対応中",MAX($B$3:$B26)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="8" t="str">
+        <f>IF(C28="","",IF(D28="対応中",MAX($B$3:$B27)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="8" t="str">
+        <f>IF(C29="","",IF(D29="対応中",MAX($B$3:$B28)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="8" t="str">
+        <f>IF(C30="","",IF(D30="対応中",MAX($B$3:$B29)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="8" t="str">
+        <f>IF(C31="","",IF(D31="対応中",MAX($B$3:$B30)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="8" t="str">
+        <f>IF(C32="","",IF(D32="対応中",MAX($B$3:$B31)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="8" t="str">
+        <f>IF(C33="","",IF(D33="対応中",MAX($B$3:$B32)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="8" t="str">
+        <f>IF(C34="","",IF(D34="対応中",MAX($B$3:$B33)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="8" t="str">
+        <f>IF(C35="","",IF(D35="対応中",MAX($B$3:$B34)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="8" t="str">
+        <f>IF(C36="","",IF(D36="対応中",MAX($B$3:$B35)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8" t="str">
+        <f>IF(C37="","",IF(D37="対応中",MAX($B$3:$B36)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="8" t="str">
+        <f>IF(C38="","",IF(D38="対応中",MAX($B$3:$B37)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="8" t="str">
+        <f>IF(C39="","",IF(D39="対応中",MAX($B$3:$B38)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="8" t="str">
+        <f>IF(C40="","",IF(D40="対応中",MAX($B$3:$B39)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="8" t="str">
+        <f>IF(C41="","",IF(D41="対応中",MAX($B$3:$B40)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="8" t="str">
+        <f>IF(C42="","",IF(D42="対応中",MAX($B$3:$B41)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="8" t="str">
+        <f>IF(C43="","",IF(D43="対応中",MAX($B$3:$B42)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="8" t="str">
+        <f>IF(C44="","",IF(D44="対応中",MAX($B$3:$B43)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="8" t="str">
+        <f>IF(C45="","",IF(D45="対応中",MAX($B$3:$B44)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="8" t="str">
+        <f>IF(C46="","",IF(D46="対応中",MAX($B$3:$B45)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="8" t="str">
+        <f>IF(C47="","",IF(D47="対応中",MAX($B$3:$B46)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="8" t="str">
+        <f>IF(C48="","",IF(D48="対応中",MAX($B$3:$B47)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="8" t="str">
+        <f>IF(C49="","",IF(D49="対応中",MAX($B$3:$B48)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="8" t="str">
+        <f>IF(C50="","",IF(D50="対応中",MAX($B$3:$B49)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{31194745-5B85-40F4-AB76-989A87553CFF}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{CC6DE369-B998-4FCE-AF4E-76E234BFC327}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF675ABA-C1B6-47C6-BA62-885599F679CF}">
+          <x14:formula1>
+            <xm:f>config!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C5BD9-A69D-4110-BBE0-52E1E35155A6}">
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1E10BC-21EE-4654-9FA1-FAA9F64CF1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8C01CE-612E-4826-80F2-F300D545AE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,7 +641,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -662,15 +662,15 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="str">
         <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
@@ -722,15 +722,15 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="str">
         <f>IF(C7="","",IF(D7="対応中",MAX($B$3:$B6)+1,"-"))</f>
-        <v>2</v>
+        <v>-</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
@@ -1290,7 +1290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1303,7 +1303,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1324,33 +1324,37 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="str">
         <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="8">
+      <c r="B4" s="8" t="str">
         <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
-        <v>2</v>
+        <v>-</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
       <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1362,7 @@
     <row r="5" spans="2:6">
       <c r="B5" s="8">
         <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>17</v>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8C01CE-612E-4826-80F2-F300D545AE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0F0621-B3C4-45C2-BA10-00F2D1A5E83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -218,6 +218,44 @@
     <rPh sb="16" eb="17">
       <t>ジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAVE処理 フォルダ構造見直し</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームメイン処理 フォルダ構造見直し</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -641,7 +679,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -748,21 +786,25 @@
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="8">
         <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1267,6 +1309,7 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{A576DD19-E8AD-471B-8FEB-4DE2B4D0A759}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{C48ACDB2-FC58-42A6-90CC-101C11E866CF}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{A5C3AB6D-C904-4D32-850F-19913BF17586}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1360,18 +1403,20 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="8">
+      <c r="B5" s="8" t="str">
         <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="8" t="str">
@@ -1404,23 +1449,31 @@
     <row r="8" spans="2:6">
       <c r="B8" s="8" t="str">
         <f>IF(C8="","",IF(D8="対応中",MAX($B$3:$B7)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C8" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="8">
         <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C9" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1923,6 +1976,8 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{31194745-5B85-40F4-AB76-989A87553CFF}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{CC6DE369-B998-4FCE-AF4E-76E234BFC327}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{B7CD440E-30C9-45A3-8568-3C0030FBB344}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{C041E5D3-EFDC-401B-B663-204CBC783641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0F0621-B3C4-45C2-BA10-00F2D1A5E83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B68586B-908A-4265-8FD7-1510F4D5E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="34">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -256,6 +256,48 @@
   </si>
   <si>
     <t>https://github.com/kuroHigasi/game/issues/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実装（試作）</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンフィグ画面　音量確認用ボタン追加</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンフィグ画面　動作設定確認用</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カクニンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -826,9 +868,11 @@
     <row r="11" spans="2:6">
       <c r="B11" s="8" t="str">
         <f>IF(C11="","",IF(D11="対応中",MAX($B$3:$B10)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C11" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
@@ -838,9 +882,11 @@
     <row r="12" spans="2:6">
       <c r="B12" s="8" t="str">
         <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C12" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1346,7 +1392,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1479,13 +1525,15 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="8">
         <f>IF(C10="","",IF(D10="対応中",MAX($B$3:$B9)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C10" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B68586B-908A-4265-8FD7-1510F4D5E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C40295-3F98-4215-8401-0B9B5D3B5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -234,19 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームメイン処理 フォルダ構造見直し</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/kuroHigasi/game/issues/5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,16 +243,6 @@
   </si>
   <si>
     <t>https://github.com/kuroHigasi/game/issues/6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト実装（試作）</t>
-    <rPh sb="3" eb="5">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シサク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -297,6 +274,44 @@
     </rPh>
     <rPh sb="12" eb="15">
       <t>カクニンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームメイン処理 フォルダ構造見直し Phase1</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実装（試作）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームメイン処理 フォルダ構造見直し Phase2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム処理 フォルダ構造見直し</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -706,9 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -834,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -871,7 +886,7 @@
         <v>-</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -885,7 +900,7 @@
         <v>-</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -1377,9 +1392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1457C2-445B-4A17-8B64-BAE4B6C52E06}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1461,7 +1476,7 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1507,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1516,24 +1531,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="8">
+      <c r="B10" s="8" t="str">
         <f>IF(C10="","",IF(D10="対応中",MAX($B$3:$B9)+1,"-"))</f>
-        <v>2</v>
+        <v>-</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1541,9 +1560,11 @@
     <row r="11" spans="2:6">
       <c r="B11" s="8" t="str">
         <f>IF(C11="","",IF(D11="対応中",MAX($B$3:$B10)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C11" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1551,13 +1572,15 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="8">
         <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C12" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -2026,6 +2049,7 @@
     <hyperlink ref="F4" r:id="rId2" xr:uid="{CC6DE369-B998-4FCE-AF4E-76E234BFC327}"/>
     <hyperlink ref="F5" r:id="rId3" xr:uid="{B7CD440E-30C9-45A3-8568-3C0030FBB344}"/>
     <hyperlink ref="F8" r:id="rId4" xr:uid="{C041E5D3-EFDC-401B-B663-204CBC783641}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{126F1A7D-A6EC-4F4F-A6CD-810F1DCE2CCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C40295-3F98-4215-8401-0B9B5D3B5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C1EBFC-273C-4AA6-ACDD-B0FA16A7E154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -313,6 +313,18 @@
     <rPh sb="12" eb="14">
       <t>ミナオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームメイン処理 フォルダ構造見直し Phase2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +455,28 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -721,9 +754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -736,7 +769,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -853,15 +886,15 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="8">
+      <c r="B9" s="8" t="str">
         <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -889,10 +922,14 @@
         <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8" t="str">
@@ -1367,16 +1404,22 @@
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D3:D50">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{A576DD19-E8AD-471B-8FEB-4DE2B4D0A759}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{C48ACDB2-FC58-42A6-90CC-101C11E866CF}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{A5C3AB6D-C904-4D32-850F-19913BF17586}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{0B762761-323A-4115-9293-CC7A6CB0E466}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{792B8CC4-834A-46D2-9912-5D27EF12813B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08458D10-5360-429B-A6F5-754F5877549F}">
           <x14:formula1>
             <xm:f>config!$B$3:$B$6</xm:f>
           </x14:formula1>
@@ -1392,9 +1435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1457C2-445B-4A17-8B64-BAE4B6C52E06}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1407,7 +1450,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1526,15 +1569,15 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="8">
+      <c r="B9" s="8" t="str">
         <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" s="9">
         <v>4</v>
@@ -1572,25 +1615,31 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="8">
+      <c r="B12" s="8" t="str">
         <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
-        <v>2</v>
+        <v>-</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9">
         <v>4</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="8" t="str">
         <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C13" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
@@ -2044,12 +2093,18 @@
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D3:D50">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{31194745-5B85-40F4-AB76-989A87553CFF}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{CC6DE369-B998-4FCE-AF4E-76E234BFC327}"/>
     <hyperlink ref="F5" r:id="rId3" xr:uid="{B7CD440E-30C9-45A3-8568-3C0030FBB344}"/>
     <hyperlink ref="F8" r:id="rId4" xr:uid="{C041E5D3-EFDC-401B-B663-204CBC783641}"/>
     <hyperlink ref="F9" r:id="rId5" xr:uid="{126F1A7D-A6EC-4F4F-A6CD-810F1DCE2CCD}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{A9B8EDDC-DC73-4DF6-A42F-6A41C6F1BB69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C1EBFC-273C-4AA6-ACDD-B0FA16A7E154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7827CD31-FF43-41EC-BFA2-1A57525C2954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -320,11 +320,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームメイン処理 フォルダ構造見直し Phase2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/kuroHigasi/game/issues/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END処理 フォルダ構造見直し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -756,7 +764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -769,7 +777,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -808,17 +816,19 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="8">
         <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6</v>
+      </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6">
@@ -928,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1405,7 +1415,7 @@
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D50">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1437,7 +1447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1609,10 +1619,14 @@
         <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8" t="str">
@@ -1638,7 +1652,7 @@
         <v>-</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -1649,14 +1663,20 @@
     <row r="14" spans="2:6">
       <c r="B14" s="8" t="str">
         <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C14" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="8" t="str">
@@ -2094,7 +2114,7 @@
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D50">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2105,6 +2125,8 @@
     <hyperlink ref="F8" r:id="rId4" xr:uid="{C041E5D3-EFDC-401B-B663-204CBC783641}"/>
     <hyperlink ref="F9" r:id="rId5" xr:uid="{126F1A7D-A6EC-4F4F-A6CD-810F1DCE2CCD}"/>
     <hyperlink ref="F12" r:id="rId6" xr:uid="{A9B8EDDC-DC73-4DF6-A42F-6A41C6F1BB69}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{3E954FD6-E86D-47B8-BDBD-C307B86A23F3}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{DD646F07-4794-4891-B38F-E7F2CBE060E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7827CD31-FF43-41EC-BFA2-1A57525C2954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E167BBE-6BD0-42EF-8EE2-322F725ABC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -153,20 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>@dataclass 実装 Phase2</t>
-    <rPh sb="11" eb="13">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>@dataclass 実装 Phase3</t>
-    <rPh sb="11" eb="13">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SEの実装（ホーム画面　ボタン押下時）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,6 +319,20 @@
   </si>
   <si>
     <t>https://github.com/kuroHigasi/game/issues/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応不要</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -764,7 +764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -803,7 +803,7 @@
         <v>-</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -816,31 +816,33 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="8">
+      <c r="B4" s="8" t="str">
         <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9">
         <v>6</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="8">
         <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -883,7 +885,7 @@
         <v>-</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
@@ -892,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -901,7 +903,7 @@
         <v>-</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
@@ -915,7 +917,7 @@
         <v>-</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -929,7 +931,7 @@
         <v>-</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
@@ -938,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -947,7 +949,7 @@
         <v>-</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -1424,6 +1426,7 @@
     <hyperlink ref="F7" r:id="rId2" xr:uid="{C48ACDB2-FC58-42A6-90CC-101C11E866CF}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{A5C3AB6D-C904-4D32-850F-19913BF17586}"/>
     <hyperlink ref="F11" r:id="rId4" xr:uid="{0B762761-323A-4115-9293-CC7A6CB0E466}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{07A5793E-03E2-4138-A87C-C31D451707E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1443,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1457C2-445B-4A17-8B64-BAE4B6C52E06}">
-  <dimension ref="B1:F50"/>
+  <dimension ref="B1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1459,8 +1462,8 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1">
-        <f>MAX(B3:B900)</f>
-        <v>0</v>
+        <f>MAX(B3:B898)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1525,11 +1528,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1537,46 +1542,50 @@
         <f>IF(C6="","",IF(D6="対応中",MAX($B$3:$B5)+1,"-"))</f>
         <v>-</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="8" t="str">
         <f>IF(C7="","",IF(D7="対応中",MAX($B$3:$B6)+1,"-"))</f>
         <v>-</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="8">
         <f>IF(C8="","",IF(D8="対応中",MAX($B$3:$B7)+1,"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="8" t="str">
@@ -1590,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1602,13 +1611,17 @@
         <v>-</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="8" t="str">
@@ -1616,17 +1629,13 @@
         <v>-</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8" t="str">
@@ -1634,26 +1643,24 @@
         <v>-</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="8" t="str">
         <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1663,20 +1670,14 @@
     <row r="14" spans="2:6">
       <c r="B14" s="8" t="str">
         <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="8" t="str">
@@ -2086,34 +2087,10 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="8" t="str">
-        <f>IF(C49="","",IF(D49="対応中",MAX($B$3:$B48)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="8" t="str">
-        <f>IF(C50="","",IF(D50="対応中",MAX($B$3:$B49)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:D50">
+  <conditionalFormatting sqref="D3:D48">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
@@ -2122,11 +2099,11 @@
     <hyperlink ref="F3" r:id="rId1" xr:uid="{31194745-5B85-40F4-AB76-989A87553CFF}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{CC6DE369-B998-4FCE-AF4E-76E234BFC327}"/>
     <hyperlink ref="F5" r:id="rId3" xr:uid="{B7CD440E-30C9-45A3-8568-3C0030FBB344}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{C041E5D3-EFDC-401B-B663-204CBC783641}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{126F1A7D-A6EC-4F4F-A6CD-810F1DCE2CCD}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{A9B8EDDC-DC73-4DF6-A42F-6A41C6F1BB69}"/>
-    <hyperlink ref="F14" r:id="rId7" xr:uid="{3E954FD6-E86D-47B8-BDBD-C307B86A23F3}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{DD646F07-4794-4891-B38F-E7F2CBE060E3}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{C041E5D3-EFDC-401B-B663-204CBC783641}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{126F1A7D-A6EC-4F4F-A6CD-810F1DCE2CCD}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{A9B8EDDC-DC73-4DF6-A42F-6A41C6F1BB69}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{3E954FD6-E86D-47B8-BDBD-C307B86A23F3}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{DD646F07-4794-4891-B38F-E7F2CBE060E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2136,7 +2113,7 @@
           <x14:formula1>
             <xm:f>config!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D50</xm:sqref>
+          <xm:sqref>D3:D48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E167BBE-6BD0-42EF-8EE2-322F725ABC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB442B2-4847-4F71-B398-3C8830F2C261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="非機能タスク一覧" sheetId="3" r:id="rId2"/>
-    <sheet name="config" sheetId="2" r:id="rId3"/>
+    <sheet name="バグ一覧" sheetId="5" r:id="rId2"/>
+    <sheet name="非機能タスク一覧" sheetId="3" r:id="rId3"/>
+    <sheet name="config" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">タスク一覧!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">非機能タスク一覧!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">バグ一覧!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">非機能タスク一覧!$B$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="48">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -59,13 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後回し</t>
-    <rPh sb="0" eb="2">
-      <t>アトマワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -326,12 +321,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対応不要</t>
+    <t>バグ修正</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生VERSION</t>
     <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フヨウ</t>
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新バージョン</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンにて前進時にエラー発生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り下げ</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -463,7 +495,31 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -471,6 +527,145 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -760,11 +955,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F50"/>
+  <dimension ref="B1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="6" max="6" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1">
+        <f>MAX(B3:B900)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="8" t="str">
+        <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="8" t="str">
+        <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="8" t="str">
+        <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="8" t="str">
+        <f>IF(C6="","",IF(D6="対応中",MAX($B$3:$B5)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="8" t="str">
+        <f>IF(C7="","",IF(D7="対応中",MAX($B$3:$B6)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="8" t="str">
+        <f>IF(C8="","",IF(D8="対応中",MAX($B$3:$B7)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="8" t="str">
+        <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="8" t="str">
+        <f>IF(C10="","",IF(D10="対応中",MAX($B$3:$B9)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="8" t="str">
+        <f>IF(C11="","",IF(D11="対応中",MAX($B$3:$B10)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="8" t="str">
+        <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="8">
+        <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="8" t="str">
+        <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="8" t="str">
+        <f>IF(C15="","",IF(D15="対応中",MAX($B$3:$B14)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="8" t="str">
+        <f>IF(C16="","",IF(D16="対応中",MAX($B$3:$B15)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="8" t="str">
+        <f>IF(C17="","",IF(D17="対応中",MAX($B$3:$B16)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="8" t="str">
+        <f>IF(C18="","",IF(D18="対応中",MAX($B$3:$B17)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="8" t="str">
+        <f>IF(C19="","",IF(D19="対応中",MAX($B$3:$B18)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8" t="str">
+        <f>IF(C20="","",IF(D20="対応中",MAX($B$3:$B19)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="8" t="str">
+        <f>IF(C21="","",IF(D21="対応中",MAX($B$3:$B20)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="8" t="str">
+        <f>IF(C22="","",IF(D22="対応中",MAX($B$3:$B21)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="8" t="str">
+        <f>IF(C23="","",IF(D23="対応中",MAX($B$3:$B22)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="8" t="str">
+        <f>IF(C24="","",IF(D24="対応中",MAX($B$3:$B23)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="8" t="str">
+        <f>IF(C25="","",IF(D25="対応中",MAX($B$3:$B24)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="8" t="str">
+        <f>IF(C26="","",IF(D26="対応中",MAX($B$3:$B25)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="8" t="str">
+        <f>IF(C27="","",IF(D27="対応中",MAX($B$3:$B26)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="8" t="str">
+        <f>IF(C28="","",IF(D28="対応中",MAX($B$3:$B27)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="8" t="str">
+        <f>IF(C29="","",IF(D29="対応中",MAX($B$3:$B28)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="8" t="str">
+        <f>IF(C30="","",IF(D30="対応中",MAX($B$3:$B29)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="8" t="str">
+        <f>IF(C31="","",IF(D31="対応中",MAX($B$3:$B30)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="8" t="str">
+        <f>IF(C32="","",IF(D32="対応中",MAX($B$3:$B31)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="8" t="str">
+        <f>IF(C33="","",IF(D33="対応中",MAX($B$3:$B32)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="8" t="str">
+        <f>IF(C34="","",IF(D34="対応中",MAX($B$3:$B33)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="8" t="str">
+        <f>IF(C35="","",IF(D35="対応中",MAX($B$3:$B34)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="8" t="str">
+        <f>IF(C36="","",IF(D36="対応中",MAX($B$3:$B35)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8" t="str">
+        <f>IF(C37="","",IF(D37="対応中",MAX($B$3:$B36)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="8" t="str">
+        <f>IF(C38="","",IF(D38="対応中",MAX($B$3:$B37)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="8" t="str">
+        <f>IF(C39="","",IF(D39="対応中",MAX($B$3:$B38)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="8" t="str">
+        <f>IF(C40="","",IF(D40="対応中",MAX($B$3:$B39)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="8" t="str">
+        <f>IF(C41="","",IF(D41="対応中",MAX($B$3:$B40)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="8" t="str">
+        <f>IF(C42="","",IF(D42="対応中",MAX($B$3:$B41)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="8" t="str">
+        <f>IF(C43="","",IF(D43="対応中",MAX($B$3:$B42)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="8" t="str">
+        <f>IF(C44="","",IF(D44="対応中",MAX($B$3:$B43)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="8" t="str">
+        <f>IF(C45="","",IF(D45="対応中",MAX($B$3:$B44)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="8" t="str">
+        <f>IF(C46="","",IF(D46="対応中",MAX($B$3:$B45)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="8" t="str">
+        <f>IF(C47="","",IF(D47="対応中",MAX($B$3:$B46)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="8" t="str">
+        <f>IF(C48="","",IF(D48="対応中",MAX($B$3:$B47)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="8" t="str">
+        <f>IF(C49="","",IF(D49="対応中",MAX($B$3:$B48)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="8" t="str">
+        <f>IF(C50="","",IF(D50="対応中",MAX($B$3:$B49)+1,"-"))</f>
+        <v/>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D3:D100">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="取り下げ">
+      <formula>LEFT(D3,LEN("取り下げ"))="取り下げ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A576DD19-E8AD-471B-8FEB-4DE2B4D0A759}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{C48ACDB2-FC58-42A6-90CC-101C11E866CF}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{A5C3AB6D-C904-4D32-850F-19913BF17586}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{0B762761-323A-4115-9293-CC7A6CB0E466}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{07A5793E-03E2-4138-A87C-C31D451707E5}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{852AD1B3-0046-4610-A2D9-00BF857840C9}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{DEBCC6AB-46F3-47C4-882E-34D09D5497E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="beginsWith" priority="2" operator="beginsWith" id="{98C1129D-FE61-4665-8B18-3CAE4B2793E1}">
+            <xm:f>LEFT(D3,LEN("対応中"))="対応中"</xm:f>
+            <xm:f>"対応中"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D100</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08458D10-5360-429B-A6F5-754F5877549F}">
+          <x14:formula1>
+            <xm:f>config!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2582192D-417D-4CF1-BAA5-3CD3C701252E}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>config!D3</xm:f>
+          </x14:formula2>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3987CD86-C57B-4047-9067-F86A47FAC523}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>config!D$3</xm:f>
+          </x14:formula2>
+          <xm:sqref>E4:E50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01D718E-F8BB-42B9-8E30-6101FA499163}">
+  <dimension ref="B1:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -791,70 +1741,60 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="8">
         <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
-        <v>2</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="8" t="str">
         <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="8">
+      <c r="B5" s="8" t="str">
         <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="8" t="str">
         <f>IF(C6="","",IF(D6="対応中",MAX($B$3:$B5)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -864,47 +1804,33 @@
     <row r="7" spans="2:6">
       <c r="B7" s="8" t="str">
         <f>IF(C7="","",IF(D7="対応中",MAX($B$3:$B6)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="8" t="str">
         <f>IF(C8="","",IF(D8="対応中",MAX($B$3:$B7)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="8" t="str">
         <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
@@ -914,11 +1840,9 @@
     <row r="10" spans="2:6">
       <c r="B10" s="8" t="str">
         <f>IF(C10="","",IF(D10="対応中",MAX($B$3:$B9)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
@@ -928,29 +1852,21 @@
     <row r="11" spans="2:6">
       <c r="B11" s="8" t="str">
         <f>IF(C11="","",IF(D11="対応中",MAX($B$3:$B10)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>36</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8" t="str">
         <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
@@ -967,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="8" t="str">
@@ -1417,26 +2333,52 @@
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D50">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="完了">
+    <cfRule type="beginsWith" dxfId="10" priority="1" operator="beginsWith" text="取り下げ">
+      <formula>LEFT(D3,LEN("取り下げ"))="取り下げ"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{A576DD19-E8AD-471B-8FEB-4DE2B4D0A759}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{C48ACDB2-FC58-42A6-90CC-101C11E866CF}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{A5C3AB6D-C904-4D32-850F-19913BF17586}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{0B762761-323A-4115-9293-CC7A6CB0E466}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{07A5793E-03E2-4138-A87C-C31D451707E5}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{56809C1F-F3D2-4431-A212-0E269016978A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="beginsWith" priority="2" operator="beginsWith" id="{97E89A1E-49FE-4DFC-BCCB-ABC08C8032F2}">
+            <xm:f>LEFT(D3,LEN("対応中"))="対応中"</xm:f>
+            <xm:f>"対応中"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D50</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08458D10-5360-429B-A6F5-754F5877549F}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C94C00B-7BFE-4A86-9C73-C3B3C44034C7}">
           <x14:formula1>
             <xm:f>config!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FAF74DF2-F209-49D1-B869-95987D09CBB5}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>config!D$3</xm:f>
+          </x14:formula2>
+          <xm:sqref>E3:E50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1444,13 +2386,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1457C2-445B-4A17-8B64-BAE4B6C52E06}">
-  <dimension ref="B1:F48"/>
+  <dimension ref="B1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1477,10 +2419,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -1489,16 +2431,16 @@
         <v>-</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1507,16 +2449,16 @@
         <v>-</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9">
         <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1525,16 +2467,14 @@
         <v>-</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1543,16 +2483,16 @@
         <v>-</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="9">
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1561,16 +2501,16 @@
         <v>-</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="9">
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1579,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>4</v>
@@ -1593,16 +2533,16 @@
         <v>-</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="9">
         <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1611,16 +2551,16 @@
         <v>-</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="9">
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1629,7 +2569,7 @@
         <v>-</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -1643,16 +2583,16 @@
         <v>-</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="9">
         <v>5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -2087,11 +3027,24 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:D48">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
+  <conditionalFormatting sqref="D3:D50">
+    <cfRule type="beginsWith" dxfId="17" priority="1" operator="beginsWith" text="取り下げ">
+      <formula>LEFT(D3,LEN("取り下げ"))="取り下げ"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2107,13 +3060,40 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="beginsWith" priority="2" operator="beginsWith" id="{13EEE2A5-83A2-48D7-9D1E-6D7D05A76028}">
+            <xm:f>LEFT(D3,LEN("対応中"))="対応中"</xm:f>
+            <xm:f>"対応中"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D3:D50</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF675ABA-C1B6-47C6-BA62-885599F679CF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0887DF7-59E1-4C82-A451-BF906453B3E3}">
           <x14:formula1>
             <xm:f>config!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D48</xm:sqref>
+          <xm:sqref>D3:D50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BC1F0F9-D761-4D6E-88D5-20C09D16986C}">
+          <x14:formula1>
+            <xm:f>1</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>config!D$3</xm:f>
+          </x14:formula2>
+          <xm:sqref>E3:E48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2121,39 +3101,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C5BD9-A69D-4110-BBE0-52E1E35155A6}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="D3" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:4">
       <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB442B2-4847-4F71-B398-3C8830F2C261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8626366E-1941-4D4F-95EA-FC62CCFD4029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -364,6 +364,19 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョン内ステータス遷移を新設</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -495,58 +508,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="0"/>
@@ -561,23 +523,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -605,40 +550,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -955,11 +866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G50"/>
+  <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -969,13 +880,13 @@
     <col min="6" max="6" width="45.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:6">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -992,7 +903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:6">
       <c r="B3" s="8" t="str">
         <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
         <v>-</v>
@@ -1010,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:6">
       <c r="B4" s="8" t="str">
         <f>IF(C4="","",IF(D4="対応中",MAX($B$3:$B3)+1,"-"))</f>
         <v>-</v>
@@ -1027,11 +938,8 @@
       <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="8" t="str">
         <f>IF(C5="","",IF(D5="対応中",MAX($B$3:$B4)+1,"-"))</f>
         <v>-</v>
@@ -1048,11 +956,8 @@
       <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="8" t="str">
         <f>IF(C6="","",IF(D6="対応中",MAX($B$3:$B5)+1,"-"))</f>
         <v>-</v>
@@ -1066,7 +971,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:6">
       <c r="B7" s="8" t="str">
         <f>IF(C7="","",IF(D7="対応中",MAX($B$3:$B6)+1,"-"))</f>
         <v>-</v>
@@ -1083,11 +988,8 @@
       <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="8" t="str">
         <f>IF(C8="","",IF(D8="対応中",MAX($B$3:$B7)+1,"-"))</f>
         <v>-</v>
@@ -1104,11 +1006,8 @@
       <c r="F8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="8" t="str">
         <f>IF(C9="","",IF(D9="対応中",MAX($B$3:$B8)+1,"-"))</f>
         <v>-</v>
@@ -1122,7 +1021,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:6">
       <c r="B10" s="8" t="str">
         <f>IF(C10="","",IF(D10="対応中",MAX($B$3:$B9)+1,"-"))</f>
         <v>-</v>
@@ -1136,7 +1035,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:6">
       <c r="B11" s="8" t="str">
         <f>IF(C11="","",IF(D11="対応中",MAX($B$3:$B10)+1,"-"))</f>
         <v>-</v>
@@ -1153,11 +1052,8 @@
       <c r="F11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="8" t="str">
         <f>IF(C12="","",IF(D12="対応中",MAX($B$3:$B11)+1,"-"))</f>
         <v>-</v>
@@ -1171,7 +1067,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:6">
       <c r="B13" s="8">
         <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
         <v>1</v>
@@ -1188,11 +1084,8 @@
       <c r="F13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="8" t="str">
         <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
         <v/>
@@ -1204,7 +1097,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:6">
       <c r="B15" s="8" t="str">
         <f>IF(C15="","",IF(D15="対応中",MAX($B$3:$B14)+1,"-"))</f>
         <v/>
@@ -1216,7 +1109,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:6">
       <c r="B16" s="8" t="str">
         <f>IF(C16="","",IF(D16="対応中",MAX($B$3:$B15)+1,"-"))</f>
         <v/>
@@ -1640,11 +1533,11 @@
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D100">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="完了">
+    <cfRule type="beginsWith" dxfId="8" priority="1" operator="beginsWith" text="取り下げ">
+      <formula>LEFT(D3,LEN("取り下げ"))="取り下げ"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="取り下げ">
-      <formula>LEFT(D3,LEN("取り下げ"))="取り下げ"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1714,7 +1607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2333,10 +2226,10 @@
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D50">
-    <cfRule type="beginsWith" dxfId="10" priority="1" operator="beginsWith" text="取り下げ">
+    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="取り下げ">
       <formula>LEFT(D3,LEN("取り下げ"))="取り下げ"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2390,9 +2283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1457C2-445B-4A17-8B64-BAE4B6C52E06}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2405,7 +2298,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B898)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -2596,15 +2489,19 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="8">
         <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C13" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>7</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6">
@@ -3041,10 +2938,10 @@
   <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D50">
-    <cfRule type="beginsWith" dxfId="17" priority="1" operator="beginsWith" text="取り下げ">
+    <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="取り下げ">
       <formula>LEFT(D3,LEN("取り下げ"))="取り下げ"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3105,9 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C5BD9-A69D-4110-BBE0-52E1E35155A6}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>

--- a/00_TODO/TODO.xlsx
+++ b/00_TODO/TODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\00_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8626366E-1941-4D4F-95EA-FC62CCFD4029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32396080-E508-44C8-AD03-80CC3D05DA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="53">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -321,13 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バグ修正</t>
-    <rPh sb="2" eb="4">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/kuroHigasi/game/issues/14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,6 +371,38 @@
     <rPh sb="14" eb="16">
       <t>シンセツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム フォルダ構造見直し</t>
+    <rPh sb="9" eb="11">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ修正[0007]</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ修正[0008]</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kuroHigasi/game/issues/20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -868,9 +893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -883,7 +908,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -954,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1068,34 +1093,40 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8">
+      <c r="B13" s="8" t="str">
         <f>IF(C13="","",IF(D13="対応中",MAX($B$3:$B12)+1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="9">
         <v>7</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="8" t="str">
         <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C14" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="8" t="str">
@@ -1548,6 +1579,7 @@
     <hyperlink ref="F4" r:id="rId5" xr:uid="{07A5793E-03E2-4138-A87C-C31D451707E5}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{852AD1B3-0046-4610-A2D9-00BF857840C9}"/>
     <hyperlink ref="F13" r:id="rId7" xr:uid="{DEBCC6AB-46F3-47C4-882E-34D09D5497E3}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{BAA211D7-0681-4461-808A-7770B2ACB75E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1607,7 +1639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1620,7 +1652,7 @@
     <row r="1" spans="2:6">
       <c r="B1" s="1">
         <f>MAX(B3:B900)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1634,28 +1666,28 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="str">
         <f>IF(C3="","",IF(D3="対応中",1,"-"))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="9">
         <v>6</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -2283,9 +2315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1457C2-445B-4A17-8B64-BAE4B6C52E06}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2363,7 +2395,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
@@ -2494,27 +2526,31 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9">
-        <v>7</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="8" t="str">
         <f>IF(C14="","",IF(D14="対応中",MAX($B$3:$B13)+1,"-"))</f>
-        <v/>
-      </c>
-      <c r="C14" s="4"/>
+        <v>-</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="8" t="str">
@@ -2954,6 +2990,7 @@
     <hyperlink ref="F10" r:id="rId6" xr:uid="{A9B8EDDC-DC73-4DF6-A42F-6A41C6F1BB69}"/>
     <hyperlink ref="F12" r:id="rId7" xr:uid="{3E954FD6-E86D-47B8-BDBD-C307B86A23F3}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{DD646F07-4794-4891-B38F-E7F2CBE060E3}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{FDFA958D-22B3-4F4F-82DF-B8A0E471C1DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3002,7 +3039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C5BD9-A69D-4110-BBE0-52E1E35155A6}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -3011,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -3019,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3029,7 +3068,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4">
